--- a/设定表.xlsx
+++ b/设定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C156702A-FD6E-4A50-A838-E245295597C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E52F1E-37E3-4A40-9AEB-740511602EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,10 +577,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>科技弓</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -691,6 +687,10 @@
   </si>
   <si>
     <t>火焰炮台</t>
+  </si>
+  <si>
+    <t>Frostbite Touch
+(霜冻之触)</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1235,19 +1235,19 @@
         <v>95</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I2" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" s="11" t="s">
         <v>113</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>114</v>
       </c>
       <c r="K2" s="11" t="s">
         <v>96</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -1260,7 +1260,7 @@
         <v>87</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>60</v>
@@ -1306,7 +1306,7 @@
         <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>98</v>
@@ -1357,7 +1357,7 @@
         <v>27</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
@@ -1367,14 +1367,14 @@
       <c r="B8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>106</v>
+      <c r="D8" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>73</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>29</v>
@@ -1391,7 +1391,7 @@
         <v>72</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>69</v>
@@ -1496,7 +1496,7 @@
         <v>97</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="4"/>
     </row>
@@ -1511,7 +1511,7 @@
         <v>49</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K15" s="8" t="s">
         <v>63</v>
@@ -1528,7 +1528,7 @@
         <v>52</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>66</v>

--- a/设定表.xlsx
+++ b/设定表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E52F1E-37E3-4A40-9AEB-740511602EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD72902-5147-4A27-BA13-3BC97FEDD360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -686,11 +686,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>火焰炮台</t>
-  </si>
-  <si>
     <t>Frostbite Touch
 (霜冻之触)</t>
+  </si>
+  <si>
+    <t>Fire Guardian
+(火焰守卫者)</t>
   </si>
 </sst>
 </file>
@@ -1137,8 +1138,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1368,7 +1369,7 @@
         <v>85</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>73</v>
@@ -1527,8 +1528,8 @@
       <c r="B16" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>117</v>
+      <c r="C16" s="11" t="s">
+        <v>118</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>66</v>

--- a/设定表.xlsx
+++ b/设定表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25234\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Files\Eric\Projects\SurvivorsProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE947509-02FB-410A-964F-6D9115A96A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451AEBF5-39C9-43ED-B75D-8E49A80B57C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -887,7 +887,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -895,11 +895,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal style="thin">
         <color auto="1"/>
       </diagonal>
@@ -914,53 +937,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1239,504 +1262,504 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" customWidth="1"/>
-    <col min="3" max="3" width="29.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="28.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="24.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="27" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.75" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="24.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="35.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="33.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="28.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.5" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="27" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.5" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="15.75" style="2" customWidth="1"/>
+    <col min="17" max="17" width="15.25" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.125" style="2" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="3"/>
     </row>
     <row r="4" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="J4" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="13"/>
+      <c r="N4" s="10"/>
     </row>
     <row r="5" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="J5" s="10" t="s">
+      <c r="H5" s="3"/>
+      <c r="J5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="N5" s="14"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="79.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="3" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="10" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="12" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="81.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="L13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="10" t="s">
+      <c r="I14" s="3"/>
+      <c r="J14" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="M14" s="13"/>
+      <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:14" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="75.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="L16" s="15" t="s">
+      <c r="L16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="1:14" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="11"/>
-      <c r="M17" s="15" t="s">
+      <c r="J17" s="3"/>
+      <c r="K17" s="15"/>
+      <c r="M17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="N17" s="13"/>
+      <c r="N17" s="10"/>
     </row>
     <row r="18" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="10" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K18" s="11" t="s">
+      <c r="K18" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="3"/>
     </row>
     <row r="23" spans="1:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="10" t="s">
+      <c r="I24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="11" t="s">
+      <c r="F26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="I26" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7" t="s">
+      <c r="L26" s="3"/>
+      <c r="M26" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="10" t="s">
+      <c r="J27" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="K28" s="5" t="s">
+      <c r="K28" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="3" t="s">
         <v>68</v>
       </c>
     </row>
